--- a/data/case1/13/Q_device_13.xlsx
+++ b/data/case1/13/Q_device_13.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="true"/>
@@ -62,26 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.041187743993531832</v>
+        <v>-0.022559779323172841</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.045662409854285539</v>
+        <v>-0.023196238584140032</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.010314133699971001</v>
+        <v>-0.037900829027244683</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.010329342149799187</v>
+        <v>-0.025623603773802562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.087549132485835915</v>
+        <v>-0.013782967777531232</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.083825541774242798</v>
+        <v>-0.013281671387067855</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>-0.061818684486596109</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-0.061754065911548597</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>-0.022366786310500587</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.022282449892954616</v>
       </c>
     </row>
   </sheetData>
